--- a/VersionRecords/Version 5.2.0 20161228/版本Bug和特性计划及评审表v5.2.0_野帝组.xlsx
+++ b/VersionRecords/Version 5.2.0 20161228/版本Bug和特性计划及评审表v5.2.0_野帝组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>No</t>
   </si>
@@ -102,7 +102,7 @@
     <t>New Features</t>
   </si>
   <si>
-    <t>房东移动版</t>
+    <t>mogoroom-papp</t>
   </si>
   <si>
     <t>是</t>
@@ -114,25 +114,25 @@
     <t>极光消息推送</t>
   </si>
   <si>
-    <t>极光推送</t>
-  </si>
-  <si>
-    <t>BS</t>
+    <t>mogoroom-message</t>
   </si>
   <si>
     <t>app版本管理及房东管理</t>
   </si>
   <si>
-    <t>租客</t>
-  </si>
-  <si>
-    <t>补录租约同意发送消息</t>
+    <t>mogoroom-bs</t>
+  </si>
+  <si>
+    <t>租客补录租约同意发送消息</t>
+  </si>
+  <si>
+    <t>mogoroom-renter</t>
   </si>
   <si>
     <t>房源同步定时器</t>
   </si>
   <si>
-    <t>移动版房态图APP房源同步的定时器</t>
+    <t>room-sync-job</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>生产环境</t>
-  </si>
-  <si>
-    <t>mogoroom-papp</t>
   </si>
   <si>
     <t>systemconfig.properties
@@ -357,9 +354,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -427,20 +424,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -460,6 +443,30 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,38 +494,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,6 +509,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,8 +552,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,33 +573,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -628,13 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +643,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,19 +673,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +721,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,42 +787,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -766,49 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,17 +970,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,17 +1021,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,193 +1064,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1860,7 +1857,7 @@
   <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2056,7 +2053,7 @@
       <c r="C4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="44" t="s">
@@ -2138,7 +2135,7 @@
       <c r="U5" s="61"/>
       <c r="V5" s="60"/>
     </row>
-    <row r="6" s="37" customFormat="1" ht="33" spans="1:22">
+    <row r="6" s="37" customFormat="1" ht="16.5" spans="1:22">
       <c r="A6" s="42">
         <v>5</v>
       </c>
@@ -5795,14 +5792,17 @@
   </sheetData>
   <autoFilter ref="A1:U17"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E6 E1:E4 E7:E1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 G5 I5 T5 G6 I6 T6 G1:G4 G7:G1048576 I1:I2 I7:I1048576 T1:T4 T7:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3 M4 M5 M6 M1:M2 M7:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q6 Q1:Q4 Q7:Q1048576">
+      <formula1>"能,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E6 E1:E4 E7:E1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B6 B1:B4 B7:B1048576">
       <formula1>"重要,不重要"</formula1>
@@ -5812,9 +5812,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6 O1:O4 O7:O1048576">
       <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q6 Q1:Q4 Q7:Q1048576">
-      <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5964,16 +5961,16 @@
         <v>50</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
@@ -5995,19 +5992,19 @@
         <v>50</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>56</v>
@@ -6175,11 +6172,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F7:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -6213,7 +6210,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6228,34 +6225,34 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>20</v>
@@ -6266,15 +6263,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
@@ -6287,11 +6284,11 @@
       <c r="B4" s="32"/>
       <c r="C4" s="27"/>
       <c r="D4" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
@@ -6304,17 +6301,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="F5" s="29" t="s">
         <v>80</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
@@ -6327,13 +6324,13 @@
       <c r="B6" s="32"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
@@ -6346,11 +6343,11 @@
       <c r="B7" s="32"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
@@ -6363,11 +6360,11 @@
       <c r="B8" s="32"/>
       <c r="C8" s="27"/>
       <c r="D8" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
@@ -6380,11 +6377,11 @@
       <c r="B9" s="32"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
@@ -6397,11 +6394,11 @@
       <c r="B10" s="32"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30"/>
@@ -6414,11 +6411,11 @@
       <c r="B11" s="32"/>
       <c r="C11" s="27"/>
       <c r="D11" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
@@ -6431,13 +6428,13 @@
       <c r="B12" s="32"/>
       <c r="C12" s="27"/>
       <c r="D12" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>94</v>
-      </c>
       <c r="F12" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30"/>
@@ -6450,11 +6447,11 @@
       <c r="B13" s="31"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
@@ -6699,14 +6696,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I11">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F7:F11">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I11">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7014,11 +7011,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -7051,28 +7048,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
